--- a/テスト仕様書/テスト.xlsx
+++ b/テスト仕様書/テスト.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7330" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="仕様書" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL1" sheetId="2" r:id="rId2"/>
+    <sheet name="SQL2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="172">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1152,16 +1154,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>記事とコメントが削除されている</t>
-    <rPh sb="0" eb="2">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コメントが未入力です</t>
     <rPh sb="5" eb="8">
       <t>ミニュウリョク</t>
@@ -1657,6 +1649,99 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象の記事とコメントが削除されている</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS articles;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE articles</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>id serial NOT NULL, --投稿ID</t>
+  </si>
+  <si>
+    <t>name text NOT NULL, --名前</t>
+  </si>
+  <si>
+    <t>content text NOT NULL, --コンテント</t>
+  </si>
+  <si>
+    <t>CONSTRAINT articles_pkey PRIMARY KEY (id)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>INSERT INTO articles(name, content) VALUES('伊賀', 'この掲示板について');</t>
+  </si>
+  <si>
+    <t>INSERT INTO articles(name, content) VALUES('山田', '新たな投稿です。');</t>
+  </si>
+  <si>
+    <t>記事に関するSQL</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS comments;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE comments</t>
+  </si>
+  <si>
+    <t>id serial NOT NULL, --コメントID</t>
+  </si>
+  <si>
+    <t>article_id integer NOT NULL, --投稿ID</t>
+  </si>
+  <si>
+    <t>CONSTRAINT comments_pkey PRIMARY KEY (id),</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (article_id) REFERENCES articles (id)</t>
+  </si>
+  <si>
+    <t>INSERT INTO comments(name, content, article_id) VALUES('佐藤1', '伊賀さん書き込みのコメント1',1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO comments(name, content, article_id) VALUES('佐藤2', '伊賀さん書き込みのコメント2',1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO comments(name, content, article_id) VALUES('佐藤3', '伊賀さん書き込みのコメント3',1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO comments(name, content, article_id) VALUES('吉田1', '山田さん書き込みのコメント1',2);</t>
+  </si>
+  <si>
+    <t>INSERT INTO comments(name, content, article_id) VALUES('吉田2', '山田さん書き込みのコメント2',2);</t>
+  </si>
+  <si>
+    <t>コメントに関するSQL</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1743,7 +1828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1768,17 +1853,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2062,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F15"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2081,25 +2169,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
       <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" t="s">
         <v>1</v>
       </c>
@@ -2134,41 +2222,41 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
       <c r="K4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
       <c r="K5" t="s">
         <v>11</v>
       </c>
@@ -2219,29 +2307,29 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
       <c r="K7" t="s">
         <v>29</v>
       </c>
@@ -2258,61 +2346,61 @@
         <v>75</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
       <c r="K8" t="s">
         <v>30</v>
       </c>
@@ -2329,261 +2417,261 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
       <c r="K9" t="s">
         <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" t="s">
         <v>131</v>
       </c>
-      <c r="Q9" t="s">
-        <v>132</v>
-      </c>
       <c r="R9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
       <c r="K10" t="s">
         <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q10" t="s">
         <v>74</v>
       </c>
       <c r="R10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R11" t="s">
         <v>74</v>
       </c>
       <c r="S11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>118</v>
+      <c r="D12" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S12" t="s">
         <v>74</v>
@@ -2598,51 +2686,51 @@
         <v>75</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="K13" t="s">
         <v>99</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S13" t="s">
         <v>74</v>
@@ -2657,273 +2745,273 @@
         <v>75</v>
       </c>
       <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="K14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>111</v>
+      </c>
+      <c r="R14" t="s">
+        <v>111</v>
+      </c>
+      <c r="S14" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" t="s">
+        <v>111</v>
+      </c>
+      <c r="U14" t="s">
+        <v>111</v>
+      </c>
+      <c r="V14" t="s">
+        <v>111</v>
+      </c>
+      <c r="W14" t="s">
+        <v>108</v>
+      </c>
+      <c r="X14" t="s">
         <v>132</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y14" t="s">
         <v>132</v>
       </c>
-      <c r="Y13" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="K14" t="s">
+      <c r="Z14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="K15" t="s">
         <v>106</v>
       </c>
-      <c r="L14" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" t="s">
-        <v>112</v>
-      </c>
-      <c r="N14" t="s">
-        <v>112</v>
-      </c>
-      <c r="O14" t="s">
-        <v>112</v>
-      </c>
-      <c r="P14" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>112</v>
-      </c>
-      <c r="R14" t="s">
-        <v>112</v>
-      </c>
-      <c r="S14" t="s">
-        <v>112</v>
-      </c>
-      <c r="T14" t="s">
-        <v>112</v>
-      </c>
-      <c r="U14" t="s">
-        <v>112</v>
-      </c>
-      <c r="V14" t="s">
-        <v>112</v>
-      </c>
-      <c r="W14" t="s">
-        <v>109</v>
-      </c>
-      <c r="X14" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="K15" t="s">
-        <v>107</v>
-      </c>
       <c r="L15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X15" t="s">
         <v>74</v>
       </c>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2942,46 +3030,46 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
       <c r="K19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
       <c r="K20" s="6" t="s">
         <v>76</v>
       </c>
       <c r="L20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M20" t="s">
         <v>78</v>
@@ -2993,54 +3081,54 @@
         <v>74</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
       <c r="K21" s="6" t="s">
         <v>77</v>
       </c>
       <c r="L21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M21" t="s">
         <v>79</v>
@@ -3052,54 +3140,54 @@
         <v>74</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
       <c r="K22" t="s">
         <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M22" t="s">
         <v>75</v>
@@ -3114,51 +3202,51 @@
         <v>93</v>
       </c>
       <c r="Q22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
       <c r="K23" t="s">
         <v>35</v>
       </c>
       <c r="L23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M23" t="s">
         <v>75</v>
@@ -3170,66 +3258,66 @@
         <v>75</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q23" t="s">
         <v>93</v>
       </c>
       <c r="R23" t="s">
+        <v>135</v>
+      </c>
+      <c r="S23" t="s">
+        <v>135</v>
+      </c>
+      <c r="T23" t="s">
+        <v>135</v>
+      </c>
+      <c r="U23" t="s">
+        <v>135</v>
+      </c>
+      <c r="V23" t="s">
+        <v>135</v>
+      </c>
+      <c r="W23" t="s">
+        <v>135</v>
+      </c>
+      <c r="X23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="S23" t="s">
-        <v>136</v>
-      </c>
-      <c r="T23" t="s">
-        <v>136</v>
-      </c>
-      <c r="U23" t="s">
-        <v>136</v>
-      </c>
-      <c r="V23" t="s">
-        <v>136</v>
-      </c>
-      <c r="W23" t="s">
-        <v>136</v>
-      </c>
-      <c r="X23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
       <c r="K24" t="s">
         <v>94</v>
       </c>
       <c r="L24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M24" t="s">
         <v>75</v>
@@ -3241,54 +3329,54 @@
         <v>75</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R24" t="s">
         <v>95</v>
       </c>
       <c r="S24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
       <c r="K25" t="s">
         <v>100</v>
       </c>
       <c r="L25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M25" t="s">
         <v>75</v>
@@ -3300,54 +3388,54 @@
         <v>75</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T25" t="s">
         <v>72</v>
       </c>
       <c r="U25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V25" t="s">
         <v>72</v>
       </c>
       <c r="W25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
       <c r="K26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M26" t="s">
         <v>75</v>
@@ -3359,54 +3447,54 @@
         <v>75</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V26" t="s">
         <v>72</v>
       </c>
       <c r="W26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
       <c r="K27" t="s">
         <v>34</v>
       </c>
       <c r="L27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M27" t="s">
         <v>75</v>
@@ -3418,66 +3506,66 @@
         <v>75</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W27" t="s">
         <v>74</v>
       </c>
       <c r="X27" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="Y27" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M28" t="s">
         <v>75</v>
@@ -3489,54 +3577,54 @@
         <v>75</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X28" t="s">
         <v>74</v>
       </c>
       <c r="Y28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
       <c r="K29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s">
         <v>75</v>
@@ -3548,49 +3636,49 @@
         <v>75</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y29" t="s">
         <v>74</v>
       </c>
       <c r="Z29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
       <c r="K30" s="4" t="s">
         <v>36</v>
       </c>
@@ -3641,15 +3729,15 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
       <c r="K31" s="4" t="s">
         <v>37</v>
       </c>
@@ -3675,75 +3763,75 @@
         <v>74</v>
       </c>
       <c r="S31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
       <c r="K32" s="4" t="s">
         <v>97</v>
       </c>
       <c r="L32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S32" t="s">
         <v>74</v>
@@ -3767,753 +3855,753 @@
         <v>72</v>
       </c>
       <c r="Z32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
       <c r="K33" s="4" t="s">
         <v>101</v>
       </c>
       <c r="L33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S33" t="s">
         <v>74</v>
       </c>
       <c r="T33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y33" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="K34" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Z33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
-      <c r="K34" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="L34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z34" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="E48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C72" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="E72" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C76" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E68" s="8" t="s">
+      <c r="E76" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="10"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="9"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="9"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="9"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="172">
@@ -4563,7 +4651,6 @@
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F36:F39"/>
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="H36:H39"/>
     <mergeCell ref="I36:I39"/>
@@ -4581,6 +4668,8 @@
     <mergeCell ref="C36:C39"/>
     <mergeCell ref="D36:D39"/>
     <mergeCell ref="E36:E39"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="F56:F59"/>
     <mergeCell ref="F44:F47"/>
     <mergeCell ref="G44:G47"/>
     <mergeCell ref="H44:H47"/>
@@ -4589,29 +4678,31 @@
     <mergeCell ref="G48:G51"/>
     <mergeCell ref="H48:H51"/>
     <mergeCell ref="I48:I51"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
     <mergeCell ref="E44:E47"/>
-    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="F48:F51"/>
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="C52:C55"/>
     <mergeCell ref="D52:D55"/>
     <mergeCell ref="E52:E55"/>
     <mergeCell ref="F52:F55"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
     <mergeCell ref="A48:A51"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="F36:F39"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C24:C27"/>
@@ -4621,18 +4712,6 @@
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="I24:I27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="I28:I31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
@@ -4642,6 +4721,9 @@
     <mergeCell ref="G32:G35"/>
     <mergeCell ref="H32:H35"/>
     <mergeCell ref="I32:I35"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="I72:I75"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
@@ -4651,15 +4733,18 @@
     <mergeCell ref="G68:G71"/>
     <mergeCell ref="H68:H71"/>
     <mergeCell ref="I68:I71"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="B64:B67"/>
     <mergeCell ref="C64:C67"/>
@@ -4669,9 +4754,20 @@
     <mergeCell ref="E72:E75"/>
     <mergeCell ref="F72:F75"/>
     <mergeCell ref="F60:F63"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F68:F71"/>
     <mergeCell ref="A76:A79"/>
     <mergeCell ref="B76:B79"/>
     <mergeCell ref="C76:C79"/>
@@ -4681,17 +4777,183 @@
     <mergeCell ref="G76:G79"/>
     <mergeCell ref="H76:H79"/>
     <mergeCell ref="I76:I79"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>